--- a/results/mp/logistic/home-spam/confidence/126/stop-words-topk-desired-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/126/stop-words-topk-desired-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="103">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,148 +43,169 @@
     <t>return</t>
   </si>
   <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>waste</t>
+    <t>stopped</t>
+  </si>
+  <si>
+    <t>poor</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>thin</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>stopped</t>
+    <t>months</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>filters</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>sent</t>
+  </si>
+  <si>
+    <t>plastic</t>
   </si>
   <si>
     <t>filter</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>cheap</t>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>grind</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>useless</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>lid</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>received</t>
   </si>
   <si>
     <t>guess</t>
   </si>
   <si>
-    <t>months</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>lid</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>sent</t>
-  </si>
-  <si>
-    <t>grind</t>
-  </si>
-  <si>
-    <t>however</t>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>piece</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>received</t>
-  </si>
-  <si>
-    <t>piece</t>
+    <t>less</t>
   </si>
   <si>
     <t>worked</t>
   </si>
   <si>
+    <t>fit</t>
+  </si>
+  <si>
     <t>thought</t>
   </si>
   <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>fit</t>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>rust</t>
+  </si>
+  <si>
+    <t>machine</t>
   </si>
   <si>
     <t>way</t>
   </si>
   <si>
-    <t>machine</t>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>tried</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
     <t>think</t>
   </si>
   <si>
-    <t>rust</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>bottom</t>
+    <t>year</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>would</t>
   </si>
   <si>
     <t>put</t>
   </si>
   <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
     <t>hold</t>
   </si>
   <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>came</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
-    <t>keep</t>
+    <t>two</t>
   </si>
   <si>
     <t>first</t>
@@ -196,24 +217,30 @@
     <t>product</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
     <t>get</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
+    <t>bought</t>
+  </si>
+  <si>
     <t>made</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
@@ -226,22 +253,25 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>pleased</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>best</t>
+    <t>glad</t>
   </si>
   <si>
     <t>salad</t>
@@ -250,27 +280,36 @@
     <t>highly</t>
   </si>
   <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
@@ -278,6 +317,9 @@
   </si>
   <si>
     <t>good</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>positive</t>
@@ -638,7 +680,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,10 +688,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="J1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -728,16 +770,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="K3">
-        <v>0.9247311827956989</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="L3">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M3">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -749,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -757,13 +799,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9494949494949495</v>
+        <v>0.940677966101695</v>
       </c>
       <c r="C4">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="D4">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -775,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="K4">
-        <v>0.9140625</v>
+        <v>0.9453125</v>
       </c>
       <c r="L4">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M4">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -799,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -807,13 +849,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9322033898305084</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C5">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D5">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -825,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K5">
-        <v>0.8695652173913043</v>
+        <v>0.8406779661016949</v>
       </c>
       <c r="L5">
-        <v>40</v>
+        <v>248</v>
       </c>
       <c r="M5">
-        <v>40</v>
+        <v>248</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -849,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -857,13 +899,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9027027027027027</v>
+        <v>0.9056603773584906</v>
       </c>
       <c r="C6">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="D6">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -875,19 +917,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="K6">
-        <v>0.8591331269349846</v>
+        <v>0.8390092879256966</v>
       </c>
       <c r="L6">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="M6">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -899,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -907,13 +949,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8767123287671232</v>
+        <v>0.9</v>
       </c>
       <c r="C7">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D7">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -925,19 +967,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K7">
-        <v>0.8406779661016949</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="L7">
-        <v>248</v>
+        <v>38</v>
       </c>
       <c r="M7">
-        <v>248</v>
+        <v>38</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -949,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -957,13 +999,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8592592592592593</v>
+        <v>0.8972972972972973</v>
       </c>
       <c r="C8">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="D8">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -978,16 +1020,16 @@
         <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K8">
-        <v>0.8311688311688312</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="L8">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M8">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -999,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1007,13 +1049,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8555555555555555</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="C9">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="D9">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1025,19 +1067,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="K9">
-        <v>0.7631578947368421</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="L9">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c r="M9">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1049,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1057,13 +1099,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8461538461538461</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C10">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="D10">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1075,19 +1117,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K10">
-        <v>0.7359307359307359</v>
+        <v>0.7236842105263158</v>
       </c>
       <c r="L10">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="M10">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1099,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1107,13 +1149,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8301886792452831</v>
+        <v>0.8653846153846154</v>
       </c>
       <c r="C11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1125,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K11">
-        <v>0.6986301369863014</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L11">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="M11">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1149,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1157,13 +1199,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7931034482758621</v>
+        <v>0.863013698630137</v>
       </c>
       <c r="C12">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D12">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1175,19 +1217,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="K12">
-        <v>0.5675675675675675</v>
+        <v>0.6164383561643836</v>
       </c>
       <c r="L12">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="M12">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1199,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1207,13 +1249,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7906976744186046</v>
+        <v>0.8444444444444444</v>
       </c>
       <c r="C13">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D13">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1225,19 +1267,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K13">
-        <v>0.5072463768115942</v>
+        <v>0.5765765765765766</v>
       </c>
       <c r="L13">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="M13">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1249,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1257,13 +1299,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7743589743589744</v>
+        <v>0.839622641509434</v>
       </c>
       <c r="C14">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="D14">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1275,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K14">
-        <v>0.4742857142857143</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L14">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="M14">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1299,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>92</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1307,13 +1349,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7692307692307693</v>
+        <v>0.8382352941176471</v>
       </c>
       <c r="C15">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D15">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1325,31 +1367,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K15">
-        <v>0.4633950120675784</v>
+        <v>0.4971428571428572</v>
       </c>
       <c r="L15">
-        <v>576</v>
+        <v>87</v>
       </c>
       <c r="M15">
-        <v>579</v>
+        <v>87</v>
       </c>
       <c r="N15">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>667</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1357,13 +1399,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7641509433962265</v>
+        <v>0.8062015503875969</v>
       </c>
       <c r="C16">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="D16">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1378,16 +1420,16 @@
         <v>25</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K16">
-        <v>0.4444444444444444</v>
+        <v>0.4827031375703942</v>
       </c>
       <c r="L16">
-        <v>36</v>
+        <v>600</v>
       </c>
       <c r="M16">
-        <v>36</v>
+        <v>603</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1396,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>45</v>
+        <v>643</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1407,13 +1449,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7567567567567568</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C17">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="D17">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1425,19 +1467,19 @@
         <v>0</v>
       </c>
       <c r="H17">
+        <v>9</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="L17">
         <v>36</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K17">
-        <v>0.4225352112676056</v>
-      </c>
-      <c r="L17">
-        <v>30</v>
-      </c>
       <c r="M17">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1449,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1457,13 +1499,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7435897435897436</v>
+        <v>0.7897435897435897</v>
       </c>
       <c r="C18">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="D18">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1475,31 +1517,31 @@
         <v>0</v>
       </c>
       <c r="H18">
+        <v>41</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K18">
+        <v>0.4202898550724637</v>
+      </c>
+      <c r="L18">
+        <v>29</v>
+      </c>
+      <c r="M18">
+        <v>29</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>40</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K18">
-        <v>0.3297872340425532</v>
-      </c>
-      <c r="L18">
-        <v>31</v>
-      </c>
-      <c r="M18">
-        <v>31</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1507,13 +1549,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.74</v>
+        <v>0.7636363636363637</v>
       </c>
       <c r="C19">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D19">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1528,16 +1570,16 @@
         <v>13</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="K19">
-        <v>0.263013698630137</v>
+        <v>0.3223593964334705</v>
       </c>
       <c r="L19">
-        <v>192</v>
+        <v>235</v>
       </c>
       <c r="M19">
-        <v>192</v>
+        <v>236</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1546,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>538</v>
+        <v>494</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1557,13 +1599,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7358490566037735</v>
+        <v>0.7635135135135135</v>
       </c>
       <c r="C20">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="D20">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1575,31 +1617,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="K20">
-        <v>0.1305418719211823</v>
+        <v>0.3173076923076923</v>
       </c>
       <c r="L20">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="M20">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="N20">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>353</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1607,13 +1649,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7272727272727273</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C21">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D21">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1625,31 +1667,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="K21">
-        <v>0.0703851261620186</v>
+        <v>0.2803030303030303</v>
       </c>
       <c r="L21">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="M21">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="N21">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O21">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>700</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1657,13 +1699,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6991150442477876</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="C22">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="D22">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1675,31 +1717,31 @@
         <v>0</v>
       </c>
       <c r="H22">
+        <v>16</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K22">
+        <v>0.22</v>
+      </c>
+      <c r="L22">
+        <v>33</v>
+      </c>
+      <c r="M22">
         <v>34</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K22">
-        <v>0.04103671706263499</v>
-      </c>
-      <c r="L22">
-        <v>38</v>
-      </c>
-      <c r="M22">
-        <v>41</v>
-      </c>
       <c r="N22">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="O22">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>888</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1707,13 +1749,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6911764705882353</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C23">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D23">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1725,7 +1767,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K23">
+        <v>0.1578947368421053</v>
+      </c>
+      <c r="L23">
+        <v>33</v>
+      </c>
+      <c r="M23">
+        <v>33</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1733,13 +1799,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6909090909090909</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C24">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D24">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1751,7 +1817,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K24">
+        <v>0.1009852216748768</v>
+      </c>
+      <c r="L24">
+        <v>41</v>
+      </c>
+      <c r="M24">
+        <v>43</v>
+      </c>
+      <c r="N24">
+        <v>0.95</v>
+      </c>
+      <c r="O24">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1759,25 +1849,49 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6901408450704225</v>
+        <v>0.725</v>
       </c>
       <c r="C25">
+        <v>29</v>
+      </c>
+      <c r="D25">
+        <v>29</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>11</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K25">
+        <v>0.05992010652463382</v>
+      </c>
+      <c r="L25">
+        <v>45</v>
+      </c>
+      <c r="M25">
         <v>49</v>
       </c>
-      <c r="D25">
-        <v>49</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>22</v>
+      <c r="N25">
+        <v>0.92</v>
+      </c>
+      <c r="O25">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>706</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1785,13 +1899,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6410256410256411</v>
+        <v>0.7115384615384616</v>
       </c>
       <c r="C26">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="D26">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1803,7 +1917,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>28</v>
+        <v>45</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K26">
+        <v>0.05519480519480519</v>
+      </c>
+      <c r="L26">
+        <v>51</v>
+      </c>
+      <c r="M26">
+        <v>56</v>
+      </c>
+      <c r="N26">
+        <v>0.91</v>
+      </c>
+      <c r="O26">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>873</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1811,13 +1949,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6213592233009708</v>
+        <v>0.7079646017699115</v>
       </c>
       <c r="C27">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D27">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1829,7 +1967,31 @@
         <v>0</v>
       </c>
       <c r="H27">
+        <v>33</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K27">
+        <v>0.05019305019305019</v>
+      </c>
+      <c r="L27">
         <v>39</v>
+      </c>
+      <c r="M27">
+        <v>44</v>
+      </c>
+      <c r="N27">
+        <v>0.89</v>
+      </c>
+      <c r="O27">
+        <v>0.11</v>
+      </c>
+      <c r="P27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>738</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1837,13 +1999,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5961538461538461</v>
+        <v>0.7</v>
       </c>
       <c r="C28">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D28">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1855,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1863,13 +2025,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5858585858585859</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C29">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D29">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1881,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1889,13 +2051,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5195530726256983</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C30">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="D30">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1907,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>86</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1915,13 +2077,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5158730158730159</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C31">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="D31">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1933,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>61</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1941,13 +2103,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.49</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="C32">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D32">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1959,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1967,13 +2129,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.47</v>
+        <v>0.6019417475728155</v>
       </c>
       <c r="C33">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="D33">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1985,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>106</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1993,13 +2155,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4635761589403973</v>
+        <v>0.5632183908045977</v>
       </c>
       <c r="C34">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="D34">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2011,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>81</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2019,13 +2181,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4432989690721649</v>
+        <v>0.5586592178770949</v>
       </c>
       <c r="C35">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="D35">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2037,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2045,25 +2207,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4378378378378379</v>
+        <v>0.535</v>
       </c>
       <c r="C36">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="D36">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="E36">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>208</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2071,13 +2233,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4324324324324325</v>
+        <v>0.492063492063492</v>
       </c>
       <c r="C37">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D37">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2089,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2097,13 +2259,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.4320987654320987</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="C38">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D38">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2115,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2123,13 +2285,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.4285714285714285</v>
+        <v>0.4691358024691358</v>
       </c>
       <c r="C39">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="D39">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2141,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>120</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2149,13 +2311,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.4137931034482759</v>
+        <v>0.4639175257731959</v>
       </c>
       <c r="C40">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D40">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2167,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2175,13 +2337,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3734939759036144</v>
+        <v>0.456953642384106</v>
       </c>
       <c r="C41">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="D41">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2193,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>52</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2201,13 +2363,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3565891472868217</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="C42">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D42">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2219,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>83</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2227,25 +2389,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3539325842696629</v>
+        <v>0.4387755102040816</v>
       </c>
       <c r="C43">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D43">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>115</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2253,13 +2415,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3232323232323233</v>
+        <v>0.4097035040431267</v>
       </c>
       <c r="C44">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="D44">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2271,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>67</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2279,13 +2441,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3231292517006803</v>
+        <v>0.3952380952380952</v>
       </c>
       <c r="C45">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D45">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2297,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>199</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2305,13 +2467,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.3106796116504854</v>
+        <v>0.3883495145631068</v>
       </c>
       <c r="C46">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D46">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2323,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2331,25 +2493,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2702702702702703</v>
+        <v>0.3579545454545455</v>
       </c>
       <c r="C47">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D47">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E47">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F47">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2357,13 +2519,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.236734693877551</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C48">
-        <v>174</v>
+        <v>39</v>
       </c>
       <c r="D48">
-        <v>174</v>
+        <v>39</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2375,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>561</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2383,13 +2545,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2344827586206897</v>
+        <v>0.2920353982300885</v>
       </c>
       <c r="C49">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D49">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2401,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>111</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2409,25 +2571,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2140468227424749</v>
+        <v>0.2880434782608696</v>
       </c>
       <c r="C50">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D50">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>235</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2435,13 +2597,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2108843537414966</v>
+        <v>0.272108843537415</v>
       </c>
       <c r="C51">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="D51">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2453,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>116</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2461,25 +2623,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2081218274111675</v>
+        <v>0.2670299727520436</v>
       </c>
       <c r="C52">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="D52">
-        <v>42</v>
+        <v>197</v>
       </c>
       <c r="E52">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F52">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>156</v>
+        <v>538</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2487,13 +2649,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1921397379912664</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="C53">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D53">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2505,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>185</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2513,25 +2675,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1730013106159895</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="C54">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="D54">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="E54">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>631</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2539,25 +2701,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1712707182320442</v>
+        <v>0.2209944751381215</v>
       </c>
       <c r="C55">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D55">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E55">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F55">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2565,13 +2727,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1365853658536585</v>
+        <v>0.2112676056338028</v>
       </c>
       <c r="C56">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D56">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2583,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>354</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2591,25 +2753,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1099744245524297</v>
+        <v>0.2046979865771812</v>
       </c>
       <c r="C57">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D57">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E57">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="F57">
-        <v>0.9299999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>348</v>
+        <v>237</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2617,13 +2779,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1072463768115942</v>
+        <v>0.1758241758241758</v>
       </c>
       <c r="C58">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D58">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2635,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>308</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2643,25 +2805,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.0705596107055961</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C59">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D59">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E59">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>382</v>
+        <v>165</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2669,25 +2831,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.0445414847161572</v>
+        <v>0.165938864628821</v>
       </c>
       <c r="C60">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D60">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="E60">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>1094</v>
+        <v>191</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2695,25 +2857,259 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.032015065913371</v>
+        <v>0.1647058823529412</v>
       </c>
       <c r="C61">
+        <v>126</v>
+      </c>
+      <c r="D61">
+        <v>128</v>
+      </c>
+      <c r="E61">
+        <v>0.02</v>
+      </c>
+      <c r="F61">
+        <v>0.98</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62">
+        <v>0.1634146341463415</v>
+      </c>
+      <c r="C62">
+        <v>67</v>
+      </c>
+      <c r="D62">
+        <v>67</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="C63">
+        <v>46</v>
+      </c>
+      <c r="D63">
+        <v>49</v>
+      </c>
+      <c r="E63">
+        <v>0.06</v>
+      </c>
+      <c r="F63">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64">
+        <v>0.1119402985074627</v>
+      </c>
+      <c r="C64">
+        <v>30</v>
+      </c>
+      <c r="D64">
         <v>34</v>
       </c>
-      <c r="D61">
+      <c r="E64">
+        <v>0.12</v>
+      </c>
+      <c r="F64">
+        <v>0.88</v>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65">
+        <v>0.09565217391304348</v>
+      </c>
+      <c r="C65">
+        <v>33</v>
+      </c>
+      <c r="D65">
+        <v>33</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66">
+        <v>0.09113300492610837</v>
+      </c>
+      <c r="C66">
+        <v>37</v>
+      </c>
+      <c r="D66">
+        <v>42</v>
+      </c>
+      <c r="E66">
+        <v>0.12</v>
+      </c>
+      <c r="F66">
+        <v>0.88</v>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67">
+        <v>0.08801955990220049</v>
+      </c>
+      <c r="C67">
+        <v>36</v>
+      </c>
+      <c r="D67">
+        <v>41</v>
+      </c>
+      <c r="E67">
+        <v>0.12</v>
+      </c>
+      <c r="F67">
+        <v>0.88</v>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68">
+        <v>0.07443082311733801</v>
+      </c>
+      <c r="C68">
+        <v>85</v>
+      </c>
+      <c r="D68">
+        <v>100</v>
+      </c>
+      <c r="E68">
+        <v>0.15</v>
+      </c>
+      <c r="F68">
+        <v>0.85</v>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69">
+        <v>0.05576923076923077</v>
+      </c>
+      <c r="C69">
+        <v>29</v>
+      </c>
+      <c r="D69">
+        <v>31</v>
+      </c>
+      <c r="E69">
+        <v>0.06</v>
+      </c>
+      <c r="F69">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70">
+        <v>0.04143126177024482</v>
+      </c>
+      <c r="C70">
         <v>44</v>
       </c>
-      <c r="E61">
-        <v>0.23</v>
-      </c>
-      <c r="F61">
-        <v>0.77</v>
-      </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61">
-        <v>1028</v>
+      <c r="D70">
+        <v>54</v>
+      </c>
+      <c r="E70">
+        <v>0.19</v>
+      </c>
+      <c r="F70">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>1018</v>
       </c>
     </row>
   </sheetData>
